--- a/project/weiji/技能.xlsx
+++ b/project/weiji/技能.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amayer/Projects/learn_FrontEnd/project/weiji/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amayer\learn_FrontEnd\project\weiji\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540"/>
+    <workbookView xWindow="855" yWindow="465" windowWidth="27945" windowHeight="17535" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="剑侍卫" sheetId="1" r:id="rId1"/>
     <sheet name="拳师" sheetId="3" r:id="rId2"/>
     <sheet name="枪手" sheetId="4" r:id="rId3"/>
     <sheet name="刺客" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="备注" sheetId="2" r:id="rId5"/>
+    <sheet name="场景" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
   <si>
     <t>技能</t>
   </si>
@@ -299,9 +300,6 @@
   </si>
   <si>
     <t>勾锁</t>
-  </si>
-  <si>
-    <t>退击</t>
   </si>
   <si>
     <t>定时炸弹</t>
@@ -350,12 +348,106 @@
     <t>眩晕3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>退魔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a 前5个回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>回合事件(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断ab先手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能影响场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步可用技能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>同步a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>b状态</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步场景</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能释放</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,6 +465,14 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -417,7 +517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -448,6 +548,9 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -457,8 +560,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -469,6 +572,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -852,38 +958,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J17" sqref="J17"/>
+      <selection pane="topRight" activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.1640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.125" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.125" style="1" customWidth="1"/>
     <col min="11" max="12" width="5.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.33203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.83203125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.875" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.83203125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.33203125" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.125" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.375" style="1" customWidth="1"/>
     <col min="21" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="18.6640625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.6640625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.33203125" style="1" customWidth="1"/>
-    <col min="27" max="27" width="3.6640625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.1640625" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.6640625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3.625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.125" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.625" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -900,10 +1006,10 @@
       <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="9" t="s">
@@ -921,7 +1027,7 @@
       <c r="O1" s="9"/>
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="S1" s="9" t="s">
@@ -944,8 +1050,8 @@
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
       <c r="G2" s="9" t="s">
         <v>10</v>
       </c>
@@ -961,33 +1067,33 @@
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="10" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="11" t="s">
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="12" t="s">
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-    </row>
-    <row r="3" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+    </row>
+    <row r="3" spans="1:30" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1021,7 +1127,7 @@
       <c r="Q3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="13"/>
+      <c r="R3" s="10"/>
       <c r="S3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1267,7 +1373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:30" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="9"/>
       <c r="D13" s="1" t="s">
         <v>59</v>
@@ -1335,7 +1441,7 @@
         <v>65</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.15">
@@ -1360,7 +1466,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="42" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A19" s="9"/>
       <c r="D19" s="1" t="s">
         <v>34</v>
@@ -1420,6 +1526,9 @@
       <c r="C24" s="1" t="s">
         <v>71</v>
       </c>
+      <c r="Q24" s="1" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
@@ -1429,30 +1538,30 @@
         <v>85</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="M1:Q2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="G1:K1"/>
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1465,11 +1574,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
@@ -1485,10 +1594,10 @@
       <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="9" t="s">
@@ -1506,7 +1615,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
-      <c r="S1" s="13" t="s">
+      <c r="S1" s="10" t="s">
         <v>8</v>
       </c>
       <c r="T1" s="9" t="s">
@@ -1530,8 +1639,8 @@
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
       <c r="H2" s="9" t="s">
         <v>10</v>
       </c>
@@ -1547,34 +1656,34 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
       <c r="R2" s="9"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="10" t="s">
+      <c r="S2" s="10"/>
+      <c r="T2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="11" t="s">
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="12" t="s">
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12"/>
-    </row>
-    <row r="3" spans="1:31" ht="42" x14ac:dyDescent="0.15">
+      <c r="AC2" s="13"/>
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+    </row>
+    <row r="3" spans="1:31" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1608,7 +1717,7 @@
       <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="13"/>
+      <c r="S3" s="10"/>
       <c r="T3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1646,6 +1755,12 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="N1:R2"/>
@@ -1655,12 +1770,6 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:L1"/>
-    <mergeCell ref="T1:AE1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1672,10 +1781,10 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1699,22 +1808,22 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1731,41 +1840,41 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1778,11 +1887,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="46.5" customWidth="1"/>
   </cols>
@@ -1792,11 +1901,105 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:I22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="C10" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I11" s="14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I13" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I14" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I15" s="14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.15">
+      <c r="I16" s="14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I17" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I20" s="14" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I21" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.15">
+      <c r="I22" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/project/weiji/技能.xlsx
+++ b/project/weiji/技能.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26812"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Amayer\learn_FrontEnd\project\weiji\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amayer/Projects/learn_FrontEnd/project/weiji/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="855" yWindow="465" windowWidth="27945" windowHeight="17535" activeTab="5"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="27940" windowHeight="17540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="剑侍卫" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="128">
   <si>
     <t>技能</t>
   </si>
@@ -389,7 +389,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -422,7 +421,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -440,6 +438,116 @@
   </si>
   <si>
     <t>角色动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>范围值：</t>
+    <rPh sb="0" eb="1">
+      <t>fan wei</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">范围值类型 </t>
+    <rPh sb="0" eb="1">
+      <t>fan wei zhi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>lei xing</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2 矩形 起始点 宽 长 </t>
+    <rPh sb="2" eb="3">
+      <t>ju xing</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>qi shi dian</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>kuan</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>chagn</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>子弹其他值</t>
+    <rPh sb="0" eb="1">
+      <t>zi d</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是子弹</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zi dan</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 速度 距离（多少回合）</t>
+    <rPh sb="1" eb="2">
+      <t>su du</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ju li</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>duo s</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>hui he</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否是渐进</t>
+    <rPh sb="0" eb="1">
+      <t>shi fou</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>jian jin</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 圆 中心点 半径 角度。</t>
+    <rPh sb="2" eb="3">
+      <t>yuan</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zhong xin d</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ban jing</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>jiao du</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -545,11 +653,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -560,8 +668,8 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -960,114 +1068,114 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O12" sqref="O12"/>
+      <selection pane="topRight" activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="11" style="1" customWidth="1"/>
-    <col min="3" max="3" width="6.125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="3.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="5.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.1640625" style="1" customWidth="1"/>
     <col min="11" max="12" width="5.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="3.625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="3.375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="5.875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="3.6640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="3.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="5.83203125" style="1" customWidth="1"/>
     <col min="16" max="16" width="5" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="5.875" style="1" customWidth="1"/>
-    <col min="20" max="20" width="6.375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.1640625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="5.83203125" style="1" customWidth="1"/>
+    <col min="20" max="20" width="6.33203125" style="1" customWidth="1"/>
     <col min="21" max="23" width="9" style="1"/>
-    <col min="24" max="24" width="18.625" style="1" customWidth="1"/>
-    <col min="25" max="25" width="11.625" style="1" customWidth="1"/>
-    <col min="26" max="26" width="11.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="3.625" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.125" style="1" customWidth="1"/>
-    <col min="29" max="29" width="9.625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="18.6640625" style="1" customWidth="1"/>
+    <col min="25" max="25" width="11.6640625" style="1" customWidth="1"/>
+    <col min="26" max="26" width="11.33203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="3.6640625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.1640625" style="1" customWidth="1"/>
+    <col min="29" max="29" width="9.6640625" style="1" customWidth="1"/>
     <col min="30" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="10" t="s">
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="S1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="9"/>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
     </row>
     <row r="2" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A2" s="9"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9" t="s">
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="14"/>
       <c r="S2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1087,13 +1195,13 @@
       <c r="AC2" s="13"/>
       <c r="AD2" s="13"/>
     </row>
-    <row r="3" spans="1:30" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+    <row r="3" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
       <c r="G3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1127,7 +1235,7 @@
       <c r="Q3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="R3" s="10"/>
+      <c r="R3" s="14"/>
       <c r="S3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1225,7 +1333,7 @@
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1236,7 +1344,7 @@
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B7" s="9"/>
+      <c r="B7" s="10"/>
       <c r="D7" s="1" t="s">
         <v>41</v>
       </c>
@@ -1277,7 +1385,7 @@
       <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="9"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1">
         <v>10</v>
       </c>
@@ -1319,7 +1427,7 @@
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="B10" s="9"/>
+      <c r="B10" s="10"/>
       <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
@@ -1363,7 +1471,7 @@
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>56</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -1373,8 +1481,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="1:30" ht="54" x14ac:dyDescent="0.15">
-      <c r="A13" s="9"/>
+    <row r="13" spans="1:30" ht="42" x14ac:dyDescent="0.15">
+      <c r="A13" s="10"/>
       <c r="D13" s="1" t="s">
         <v>59</v>
       </c>
@@ -1408,7 +1516,7 @@
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A14" s="9"/>
+      <c r="A14" s="10"/>
       <c r="D14" s="1" t="s">
         <v>41</v>
       </c>
@@ -1453,7 +1561,7 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1466,8 +1574,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:25" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A19" s="9"/>
+    <row r="19" spans="1:25" ht="42" x14ac:dyDescent="0.15">
+      <c r="A19" s="10"/>
       <c r="D19" s="1" t="s">
         <v>34</v>
       </c>
@@ -1543,18 +1651,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="S1:AD1"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="S2:W2"/>
-    <mergeCell ref="X2:Z2"/>
-    <mergeCell ref="AA2:AD2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B1:B3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B9:B10"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="D1:D3"/>
     <mergeCell ref="E1:E3"/>
@@ -1562,6 +1658,18 @@
     <mergeCell ref="R1:R3"/>
     <mergeCell ref="M1:Q2"/>
     <mergeCell ref="G1:K1"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="S1:AD1"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="S2:W2"/>
+    <mergeCell ref="X2:Z2"/>
+    <mergeCell ref="AA2:AD2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1578,85 +1686,85 @@
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="9"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
-      <c r="R1" s="9"/>
-      <c r="S1" s="10" t="s">
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="T1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="U1" s="9"/>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9"/>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9"/>
-      <c r="Z1" s="9"/>
-      <c r="AA1" s="9"/>
-      <c r="AB1" s="9"/>
-      <c r="AC1" s="9"/>
-      <c r="AD1" s="9"/>
-      <c r="AE1" s="9"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.15">
       <c r="A2" s="1"/>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="9" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
-      <c r="R2" s="9"/>
-      <c r="S2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="14"/>
       <c r="T2" s="11" t="s">
         <v>12</v>
       </c>
@@ -1676,14 +1784,14 @@
       <c r="AD2" s="13"/>
       <c r="AE2" s="13"/>
     </row>
-    <row r="3" spans="1:31" ht="40.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:31" ht="42" x14ac:dyDescent="0.15">
       <c r="A3" s="1"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="4" t="s">
         <v>15</v>
       </c>
@@ -1717,7 +1825,7 @@
       <c r="R3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="14"/>
       <c r="T3" s="3" t="s">
         <v>23</v>
       </c>
@@ -1755,12 +1863,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="T1:AE1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="T2:X2"/>
-    <mergeCell ref="Y2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
     <mergeCell ref="G1:G3"/>
     <mergeCell ref="S1:S3"/>
     <mergeCell ref="N1:R2"/>
@@ -1770,6 +1872,12 @@
     <mergeCell ref="E1:E3"/>
     <mergeCell ref="F1:F3"/>
     <mergeCell ref="H1:L1"/>
+    <mergeCell ref="T1:AE1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="T2:X2"/>
+    <mergeCell ref="Y2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -1784,7 +1892,7 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1840,7 +1948,7 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
@@ -1885,23 +1993,58 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
+    <col min="2" max="3" width="46.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1">
         <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1914,11 +2057,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="3" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
@@ -1944,57 +2087,57 @@
       <c r="C9" t="s">
         <v>107</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="9" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="11" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="9" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="9" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="15" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="9" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="16" spans="3:9" x14ac:dyDescent="0.15">
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="9" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="17" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="20" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I20" s="14" t="s">
+      <c r="I20" s="9" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="21" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I21" s="14" t="s">
+      <c r="I21" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="22" spans="9:9" x14ac:dyDescent="0.15">
-      <c r="I22" s="14" t="s">
+      <c r="I22" s="9" t="s">
         <v>115</v>
       </c>
     </row>
